--- a/PHPService/template2024_sample.xlsx
+++ b/PHPService/template2024_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.xue\Documents\Tina\projects\reporter\PHPService\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.xue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D7CE8F-E520-4DF2-B33E-63F66F418CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{295CA74E-7922-46A5-86B9-761C52DDFF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58BF3F46-769F-7C44-81AF-97AE6FEE40FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>RtID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,66 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台大雲林分院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市立聯合醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南市立醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南新樓醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹山秀傳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏基醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩主公醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>國軍803</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>國泰醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>統誠醫療</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻豆新樓醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彰化秀傳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彰濱秀傳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輔大醫院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泓采診所</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>HID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,14 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>麗寶生醫(自來客)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>報告編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +223,458 @@
   <si>
     <t>病歷編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送檢時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原樣品代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樣品種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽收日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽收人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樣品玻片(管)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用片數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submitdate</t>
+  </si>
+  <si>
+    <t>SampleNo</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>ReceivingDate</t>
+  </si>
+  <si>
+    <t>Receiving</t>
+  </si>
+  <si>
+    <t>Sampleglass</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>口腔黏膜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生資分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDNA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1管(2c.c)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1管(9c.c)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺傳性癌症基因檢測</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARVC+心內客制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDx panel (研發)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血管疾病基因檢測 (CVD)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康管理基因檢測</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神經系統疾病基因檢測</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺傳性癌症檢測(加做)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺傳性心血管疾病基因檢測(加做)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大健康基因檢測</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBM20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardiac HCM_LDTS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 台大雲林分院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 台北市立聯合醫院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 台南市立醫院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 竹山秀傳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 屏基醫院</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 恩主公醫院</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 國軍803</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 國泰醫院</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 統誠醫療</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 麻豆新樓醫院</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 彰化秀傳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3 彰濱秀傳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 輔大醫院</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 泓采診所</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 麗寶生醫(自來客)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="YouYuan"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 其他</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 台南新樓醫院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,9 +852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,7 +892,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -614,7 +998,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -764,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A4FF4B-A79B-E841-9B8A-C0CC760C7AF7}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -782,13 +1166,20 @@
     <col min="8" max="8" width="13.90625" style="1" customWidth="1"/>
     <col min="9" max="10" width="23.26953125" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="1"/>
+    <col min="15" max="15" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -831,83 +1222,150 @@
       <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="Q2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="K3" s="8"/>
+      <c r="O3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K4" s="8"/>
+      <c r="O4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{76353A27-CE7B-4D62-A152-F2A8A4C651BB}">
-          <x14:formula1>
-            <xm:f>ref!$B$8:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>G15</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04885F9F-567E-4EDD-B861-F81B3B8C149D}">
           <x14:formula1>
             <xm:f>ref!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
+          <xm:sqref>F3:F4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D2B85B7C-1FF5-4FC0-8A1C-173706C420D6}">
           <x14:formula1>
             <xm:f>ref!$B$8:$B$24</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G14</xm:sqref>
+          <xm:sqref>G3:G4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6C2BFB3-2EA2-42CF-BA7D-1B9E953D6E9D}">
+          <x14:formula1>
+            <xm:f>ref!$B$32:$B$35</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q3:Q4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A881FF69-7A4C-41AB-B0DF-42CD3DCD2978}">
           <x14:formula1>
             <xm:f>ref!$B$28:$B$29</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H14</xm:sqref>
+          <xm:sqref>H3:H4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2677342F-068E-4ABF-9866-1E7D99A343A3}">
+          <x14:formula1>
+            <xm:f>ref!$B$38:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>T3:T4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D8BC47B-FF34-40DA-B1DA-8D5DA10345C9}">
+          <x14:formula1>
+            <xm:f>ref!$B$43</xm:f>
+          </x14:formula1>
+          <xm:sqref>U3:U4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F6B30E-764F-4E89-A41B-8F102DD1B8C6}">
+          <x14:formula1>
+            <xm:f>ref!$E$8:$E$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -917,218 +1375,382 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A911A9-1609-4B6A-99B7-2E4DFA8D91D3}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.26953125" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/PHPService/template2024_sample.xlsx
+++ b/PHPService/template2024_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.xue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AFF927-216F-4C8E-A2B8-487A2279CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C2831-EC30-4FBC-BEA5-B77DCEB29F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58BF3F46-769F-7C44-81AF-97AE6FEE40FD}"/>
   </bookViews>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.4"/>
@@ -1599,21 +1599,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="e">
-        <f>Report!#REF!</f>
-        <v>#REF!</v>
+      <c r="A3" s="15">
+        <f>Report!$N4</f>
+        <v>0</v>
       </c>
       <c r="B3" s="12">
-        <f>IF(ISNUMBER(MATCH(LEFT(Report!#REF!,2),ref!$D$8:$D$113,0)),LEFT(Report!#REF!,2),0)</f>
+        <f>IF(ISNUMBER(MATCH(LEFT(Report!$E4,2),ref!$D$8:$D$113,0)),LEFT(Report!$E4,2),0)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="e">
-        <f>Report!#REF!</f>
-        <v>#REF!</v>
+      <c r="C3" s="12">
+        <f>Report!$G4</f>
+        <v>0</v>
       </c>
       <c r="D3" s="16" t="e">
-        <f>IF(ISNUMBER(MATCH($C3,ref!I33:I35,0)),WORKDAY($A3,VLOOKUP(C:C,ref!$I$32:$J$34,2,0),ref!$L$2:$L$6),WORKDAY($A3,IF(ISNUMBER(MATCH($B3,ref!$D$8:$D$113,0)),VLOOKUP(TAT原則!B:B,ref!$D$8:$F$113,3,0)),ref!C2:C6))</f>
-        <v>#REF!</v>
+        <f>IF(ISNUMBER(MATCH($C3,ref!I33:I35,0)),WORKDAY($A3,VLOOKUP(C:C,ref!$I$32:$J$34,2,0),ref!$L$2:$L$6),WORKDAY($A3,IF(ISNUMBER(MATCH($B3,ref!$D$8:$D$113,0)),VLOOKUP(TAT原則!B:B,ref!$D$8:$F$113,3,0)),ref!$L$2:$L$6))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A911A9-1609-4B6A-99B7-2E4DFA8D91D3}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/PHPService/template2024_sample.xlsx
+++ b/PHPService/template2024_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.xue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.xue\Documents\Tina\projects\GeneReport\PHPService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C2831-EC30-4FBC-BEA5-B77DCEB29F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C0133F-7AD5-4CC6-8880-8222846745A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58BF3F46-769F-7C44-81AF-97AE6FEE40FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="224">
   <si>
     <t>RtID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>客戶信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>採集日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>送檢時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原樣品代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,12 +802,39 @@
   </si>
   <si>
     <t>17 其他</t>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張本樺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳奕勳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>採集時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收檢時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送檢日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -943,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1031,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,20 +1357,22 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7265625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6328125" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.36328125" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.36328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6328125" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7265625" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.54296875" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.26953125" style="17" bestFit="1" customWidth="1"/>
@@ -1400,25 +1427,25 @@
         <v>14</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.4">
@@ -1429,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>23</v>
@@ -1456,40 +1483,42 @@
         <v>28</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="O2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="S2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="U2" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.4">
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
       <c r="L3" s="21"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="R3" s="18"/>
@@ -1499,32 +1528,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04885F9F-567E-4EDD-B861-F81B3B8C149D}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6872B85-40B9-4610-8C15-891865F8BB2B}">
           <x14:formula1>
             <xm:f>ref!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6C2BFB3-2EA2-42CF-BA7D-1B9E953D6E9D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91E9EBCE-DB00-40C5-9DA5-15D5063A89C9}">
           <x14:formula1>
             <xm:f>ref!$B$32:$B$35</xm:f>
           </x14:formula1>
           <xm:sqref>Q3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A881FF69-7A4C-41AB-B0DF-42CD3DCD2978}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1DADCA9-0AC6-4431-97B0-ECDDEF0A7BB1}">
           <x14:formula1>
             <xm:f>ref!$B$28:$B$29</xm:f>
           </x14:formula1>
           <xm:sqref>H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2677342F-068E-4ABF-9866-1E7D99A343A3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4225839-293A-421E-B572-F0734C66D9CF}">
           <x14:formula1>
             <xm:f>ref!$B$38:$B$40</xm:f>
           </x14:formula1>
           <xm:sqref>T3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D8BC47B-FF34-40DA-B1DA-8D5DA10345C9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54AC2E15-0BEE-45AA-875C-87003853C3A1}">
           <x14:formula1>
             <xm:f>ref!$B$43</xm:f>
           </x14:formula1>
@@ -1536,11 +1565,17 @@
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D2B85B7C-1FF5-4FC0-8A1C-173706C420D6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{83E06317-46A2-4556-9B87-BF49DDC6E4DF}">
           <x14:formula1>
             <xm:f>ref!$B$8:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>G3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A633E78-C164-4CC4-9F08-58D61CC50FC6}">
+          <x14:formula1>
+            <xm:f>ref!$M$8:$M$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>S3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1556,7 +1591,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.4"/>
@@ -1568,16 +1603,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1624,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A911A9-1609-4B6A-99B7-2E4DFA8D91D3}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1637,9 +1672,10 @@
     <col min="5" max="5" width="32" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,10 +1683,10 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1661,7 +1697,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1683,17 +1719,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L5" s="9">
         <v>45552</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L6" s="9">
         <v>45575</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1701,40 +1737,43 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1742,25 +1781,28 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M8" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1768,25 +1810,28 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J9" s="1">
         <v>5</v>
       </c>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M9" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1794,25 +1839,26 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="1">
         <v>10</v>
       </c>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -1820,25 +1866,26 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J11" s="1">
         <v>15</v>
       </c>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
@@ -1846,25 +1893,26 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
       <c r="I12" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J12" s="1">
         <v>15</v>
       </c>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
@@ -1872,25 +1920,26 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
       <c r="I13" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J13" s="1">
         <v>15</v>
       </c>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>15</v>
@@ -1898,25 +1947,26 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J14" s="1">
         <v>10</v>
       </c>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1">
         <v>15</v>
@@ -1924,25 +1974,26 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J15" s="1">
         <v>10</v>
       </c>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="24.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>15</v>
@@ -1950,25 +2001,26 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
       <c r="I16" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J16" s="1">
         <v>10</v>
       </c>
       <c r="K16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
         <v>15</v>
@@ -1976,7 +2028,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
       <c r="I17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J17" s="1">
         <v>20</v>
@@ -1988,13 +2040,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1">
         <v>15</v>
@@ -2002,7 +2054,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
       <c r="I18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J18" s="1">
         <v>20</v>
@@ -2014,13 +2066,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>15</v>
@@ -2028,7 +2080,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
       <c r="I19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J19" s="1">
         <v>20</v>
@@ -2040,13 +2092,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1">
         <v>15</v>
@@ -2054,7 +2106,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
       <c r="I20" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J20" s="1">
         <v>20</v>
@@ -2066,13 +2118,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1">
         <v>15</v>
@@ -2080,7 +2132,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
       <c r="I21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J21" s="1">
         <v>20</v>
@@ -2092,13 +2144,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1">
         <v>15</v>
@@ -2114,13 +2166,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1">
         <v>15</v>
@@ -2136,13 +2188,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>15</v>
@@ -2155,10 +2207,10 @@
     </row>
     <row r="25" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1">
         <v>15</v>
@@ -2171,10 +2223,10 @@
     </row>
     <row r="26" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1">
         <v>15</v>
@@ -2187,16 +2239,16 @@
     </row>
     <row r="27" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1">
         <v>15</v>
@@ -2212,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
@@ -2234,13 +2286,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
@@ -2253,10 +2305,10 @@
     </row>
     <row r="30" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="1">
         <v>10</v>
@@ -2269,16 +2321,16 @@
     </row>
     <row r="31" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
@@ -2286,7 +2338,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
       <c r="I31" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="1"/>
@@ -2296,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1">
         <v>10</v>
@@ -2310,7 +2362,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
       <c r="I32" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J32" s="5">
         <v>10</v>
@@ -2322,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
@@ -2336,7 +2388,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
       <c r="I33" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J33" s="5">
         <v>10</v>
@@ -2348,13 +2400,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
@@ -2362,7 +2414,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
       <c r="I34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J34" s="5">
         <v>10</v>
@@ -2374,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2390,10 +2442,10 @@
     </row>
     <row r="36" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D36" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2403,16 +2455,16 @@
     </row>
     <row r="37" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2425,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38" s="1">
         <v>10</v>
@@ -2444,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>10</v>
@@ -2463,13 +2515,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -2479,10 +2531,10 @@
     </row>
     <row r="41" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F41" s="1">
         <v>20</v>
@@ -2492,16 +2544,16 @@
     </row>
     <row r="42" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F42" s="1">
         <v>20</v>
@@ -2514,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" s="1">
         <v>20</v>
@@ -2530,10 +2582,10 @@
     </row>
     <row r="44" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D44" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1">
         <v>20</v>
@@ -2543,10 +2595,10 @@
     </row>
     <row r="45" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="1">
         <v>20</v>
@@ -2556,10 +2608,10 @@
     </row>
     <row r="46" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D46" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1">
         <v>20</v>
@@ -2569,10 +2621,10 @@
     </row>
     <row r="47" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D47" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47" s="1">
         <v>20</v>
@@ -2582,10 +2634,10 @@
     </row>
     <row r="48" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D48" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1">
         <v>20</v>
@@ -2595,10 +2647,10 @@
     </row>
     <row r="49" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D49" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" s="1">
         <v>20</v>
@@ -2608,10 +2660,10 @@
     </row>
     <row r="50" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D50" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F50" s="1">
         <v>20</v>
@@ -2621,10 +2673,10 @@
     </row>
     <row r="51" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D51" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1">
         <v>20</v>
@@ -2634,10 +2686,10 @@
     </row>
     <row r="52" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D52" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F52" s="1">
         <v>20</v>
@@ -2647,10 +2699,10 @@
     </row>
     <row r="53" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D53" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F53" s="1">
         <v>20</v>
@@ -2660,10 +2712,10 @@
     </row>
     <row r="54" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D54" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="1">
         <v>20</v>
@@ -2673,10 +2725,10 @@
     </row>
     <row r="55" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D55" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" s="1">
         <v>20</v>
@@ -2686,10 +2738,10 @@
     </row>
     <row r="56" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D56" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F56" s="1">
         <v>20</v>
@@ -2699,10 +2751,10 @@
     </row>
     <row r="57" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" s="1">
         <v>20</v>
@@ -2712,10 +2764,10 @@
     </row>
     <row r="58" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D58" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F58" s="1">
         <v>20</v>
@@ -2725,10 +2777,10 @@
     </row>
     <row r="59" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D59" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" s="1">
         <v>20</v>
@@ -2738,10 +2790,10 @@
     </row>
     <row r="60" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D60" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60" s="1">
         <v>20</v>
@@ -2751,10 +2803,10 @@
     </row>
     <row r="61" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" s="1">
         <v>20</v>
@@ -2764,10 +2816,10 @@
     </row>
     <row r="62" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D62" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1">
         <v>20</v>
@@ -2777,10 +2829,10 @@
     </row>
     <row r="63" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D63" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" s="1">
         <v>20</v>
@@ -2790,10 +2842,10 @@
     </row>
     <row r="64" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D64" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F64" s="1">
         <v>20</v>
@@ -2803,10 +2855,10 @@
     </row>
     <row r="65" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D65" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" s="1">
         <v>20</v>
@@ -2816,10 +2868,10 @@
     </row>
     <row r="66" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D66" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F66" s="1">
         <v>20</v>
@@ -2829,10 +2881,10 @@
     </row>
     <row r="67" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D67" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="1">
         <v>20</v>
@@ -2842,10 +2894,10 @@
     </row>
     <row r="68" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D68" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -2855,10 +2907,10 @@
     </row>
     <row r="69" spans="4:8" ht="24.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D69" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F69" s="1">
         <v>20</v>
@@ -2868,10 +2920,10 @@
     </row>
     <row r="70" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D70" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="1">
         <v>20</v>
@@ -2881,10 +2933,10 @@
     </row>
     <row r="71" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D71" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F71" s="1">
         <v>20</v>
@@ -2894,10 +2946,10 @@
     </row>
     <row r="72" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D72" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F72" s="1">
         <v>20</v>
@@ -2907,10 +2959,10 @@
     </row>
     <row r="73" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D73" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F73" s="1">
         <v>20</v>
@@ -2920,10 +2972,10 @@
     </row>
     <row r="74" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F74" s="1">
         <v>20</v>
@@ -2933,10 +2985,10 @@
     </row>
     <row r="75" spans="4:8" ht="24.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D75" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F75" s="1">
         <v>20</v>
@@ -2946,10 +2998,10 @@
     </row>
     <row r="76" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D76" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F76" s="1">
         <v>20</v>
@@ -2959,10 +3011,10 @@
     </row>
     <row r="77" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D77" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="1">
         <v>20</v>
@@ -2972,10 +3024,10 @@
     </row>
     <row r="78" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F78" s="1">
         <v>20</v>
@@ -2985,10 +3037,10 @@
     </row>
     <row r="79" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F79" s="1">
         <v>20</v>
@@ -2998,10 +3050,10 @@
     </row>
     <row r="80" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D80" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F80" s="1">
         <v>20</v>
@@ -3011,10 +3063,10 @@
     </row>
     <row r="81" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D81" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F81" s="1">
         <v>20</v>
@@ -3024,10 +3076,10 @@
     </row>
     <row r="82" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D82" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F82" s="1">
         <v>20</v>
@@ -3037,10 +3089,10 @@
     </row>
     <row r="83" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D83" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F83" s="1">
         <v>20</v>
@@ -3050,10 +3102,10 @@
     </row>
     <row r="84" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D84" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F84" s="1">
         <v>20</v>
@@ -3063,10 +3115,10 @@
     </row>
     <row r="85" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F85" s="1">
         <v>20</v>
@@ -3076,10 +3128,10 @@
     </row>
     <row r="86" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D86" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F86" s="1">
         <v>20</v>
@@ -3089,10 +3141,10 @@
     </row>
     <row r="87" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D87" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F87" s="1">
         <v>20</v>
@@ -3102,10 +3154,10 @@
     </row>
     <row r="88" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D88" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F88" s="1">
         <v>20</v>
@@ -3115,10 +3167,10 @@
     </row>
     <row r="89" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F89" s="1">
         <v>20</v>
@@ -3128,10 +3180,10 @@
     </row>
     <row r="90" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D90" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F90" s="1">
         <v>20</v>
@@ -3141,10 +3193,10 @@
     </row>
     <row r="91" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D91" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F91" s="1">
         <v>20</v>
@@ -3154,10 +3206,10 @@
     </row>
     <row r="92" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F92" s="1">
         <v>20</v>
@@ -3167,10 +3219,10 @@
     </row>
     <row r="93" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D93" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F93" s="1">
         <v>20</v>
@@ -3180,10 +3232,10 @@
     </row>
     <row r="94" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D94" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F94" s="1">
         <v>20</v>
@@ -3193,10 +3245,10 @@
     </row>
     <row r="95" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D95" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F95" s="1">
         <v>20</v>
@@ -3206,10 +3258,10 @@
     </row>
     <row r="96" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F96" s="1">
         <v>20</v>
@@ -3219,10 +3271,10 @@
     </row>
     <row r="97" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D97" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F97" s="1">
         <v>20</v>
@@ -3232,10 +3284,10 @@
     </row>
     <row r="98" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D98" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F98" s="1">
         <v>20</v>
@@ -3245,10 +3297,10 @@
     </row>
     <row r="99" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D99" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F99" s="1">
         <v>20</v>
@@ -3258,10 +3310,10 @@
     </row>
     <row r="100" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D100" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F100" s="1">
         <v>20</v>
@@ -3271,10 +3323,10 @@
     </row>
     <row r="101" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D101" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F101" s="1">
         <v>20</v>
@@ -3284,10 +3336,10 @@
     </row>
     <row r="102" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D102" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F102" s="1">
         <v>20</v>
@@ -3297,10 +3349,10 @@
     </row>
     <row r="103" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D103" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F103" s="1">
         <v>20</v>
@@ -3310,10 +3362,10 @@
     </row>
     <row r="104" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F104" s="1">
         <v>20</v>
@@ -3323,10 +3375,10 @@
     </row>
     <row r="105" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D105" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F105" s="1">
         <v>20</v>
@@ -3336,10 +3388,10 @@
     </row>
     <row r="106" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D106" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F106" s="1">
         <v>20</v>
@@ -3349,10 +3401,10 @@
     </row>
     <row r="107" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D107" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F107" s="1">
         <v>20</v>
@@ -3362,10 +3414,10 @@
     </row>
     <row r="108" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D108" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F108" s="1">
         <v>20</v>
@@ -3375,10 +3427,10 @@
     </row>
     <row r="109" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D109" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F109" s="1">
         <v>20</v>
@@ -3388,10 +3440,10 @@
     </row>
     <row r="110" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D110" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F110" s="1">
         <v>20</v>
@@ -3401,10 +3453,10 @@
     </row>
     <row r="111" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D111" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F111" s="1">
         <v>20</v>
@@ -3414,10 +3466,10 @@
     </row>
     <row r="112" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D112" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F112" s="1">
         <v>20</v>
@@ -3427,10 +3479,10 @@
     </row>
     <row r="113" spans="4:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D113" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F113" s="1">
         <v>20</v>
